--- a/RoseXL/RoseTester.xlsx
+++ b/RoseXL/RoseTester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\VS\Rose\RoseXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9DCBC0D8-339C-43B7-8CC2-2CE459267D36}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B525B011-BCF0-4834-8F8E-694CB14B216F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{A7CD19C4-DCCC-4DDD-B8A6-4B403EDBD403}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>in</t>
   </si>
@@ -33,10 +33,10 @@
     <t>mm</t>
   </si>
   <si>
-    <t>iii</t>
+    <t>CVT</t>
   </si>
   <si>
-    <t>cvt converted</t>
+    <t>RSS</t>
   </si>
 </sst>
 </file>
@@ -388,21 +388,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7D22EC-931B-4EA1-8016-FC9F2D7944BE}">
-  <dimension ref="E2:J13"/>
+  <dimension ref="G2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="7:11" x14ac:dyDescent="0.25">
       <c r="H2">
         <v>1</v>
       </c>
@@ -410,48 +407,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
+    <row r="3" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>_xll.CVT(H2,I2,I3)</f>
+        <v>25.4</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I13">
-        <f>_xll.RSS(I12:J12)</f>
-        <v>5</v>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f>_xll.RSS(H5:I5,J5)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RoseXL/RoseTester.xlsx
+++ b/RoseXL/RoseTester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\VS\Rose\RoseXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B525B011-BCF0-4834-8F8E-694CB14B216F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D450D2B-C420-47D4-88F5-8475CF8DC6F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{A7CD19C4-DCCC-4DDD-B8A6-4B403EDBD403}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="G2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RoseXL/RoseTester.xlsx
+++ b/RoseXL/RoseTester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\VS\Rose\RoseXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D450D2B-C420-47D4-88F5-8475CF8DC6F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41FC7629-9DC8-40F5-91AB-F4A4FD01F15D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{A7CD19C4-DCCC-4DDD-B8A6-4B403EDBD403}"/>
   </bookViews>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
     <t>CVT</t>
   </si>
   <si>
     <t>RSS</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>m2</t>
   </si>
 </sst>
 </file>
@@ -391,35 +391,35 @@
   <dimension ref="G2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="7:11" x14ac:dyDescent="0.25">
       <c r="H2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>_xll.CVT(H2,I2,I3)</f>
-        <v>25.4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="7:11" x14ac:dyDescent="0.25">
@@ -435,7 +435,7 @@
     </row>
     <row r="6" spans="7:11" x14ac:dyDescent="0.25">
       <c r="H6">
-        <f>_xll.RSS(H5:I5,J5)</f>
+        <f>_xll.RSS(H5)</f>
         <v>0</v>
       </c>
     </row>
